--- a/TC_Template/Main.rvl.xlsx
+++ b/TC_Template/Main.rvl.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="RVL" sheetId="1" r:id="rId2"/>
+    <sheet name="Cleanup" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="101">
   <si>
     <t>Flow</t>
   </si>
@@ -307,6 +308,15 @@
   </si>
   <si>
     <t>Template</t>
+  </si>
+  <si>
+    <t>RVL</t>
+  </si>
+  <si>
+    <t>DoPlaySheet</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
   </si>
 </sst>
 </file>
@@ -327,7 +337,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="249">
+  <borders count="562">
     <border>
       <left/>
       <right/>
@@ -583,11 +593,324 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="562">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -837,6 +1160,319 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="246" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="247" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="248" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="249" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="250" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="251" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="252" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="253" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="254" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="255" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="256" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="257" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="258" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="259" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="260" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="261" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="262" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="263" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="264" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="265" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="266" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="267" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="268" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="269" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="270" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="271" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="272" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="273" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="274" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="275" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="276" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="277" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="278" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="279" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="280" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="281" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="282" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="283" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="284" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="285" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="286" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="287" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="288" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="289" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="290" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="291" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="292" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="293" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="294" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="295" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="296" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="297" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="298" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="299" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="300" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="301" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="302" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="303" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="304" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="305" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="306" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="307" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="308" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="309" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="310" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="311" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="312" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="313" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="314" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="315" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="316" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="317" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="318" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="319" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="320" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="321" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="322" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="323" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="324" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="325" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="326" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="327" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="328" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="329" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="330" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="331" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="332" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="333" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="334" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="335" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="336" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="337" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="338" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="339" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="340" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="341" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="342" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="343" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="344" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="345" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="346" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="347" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="348" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="349" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="350" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="351" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="352" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="353" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="354" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="355" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="356" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="357" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="358" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="359" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="360" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="361" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="362" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="363" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="364" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="365" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="366" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="367" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="368" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="369" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="370" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="371" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="372" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="373" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="374" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="375" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="376" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="377" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="378" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="379" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="380" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="381" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="382" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="383" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="384" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="385" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="386" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="387" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="388" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="389" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="390" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="391" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="392" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="393" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="394" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="395" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="396" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="397" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="398" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="399" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="400" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="401" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="402" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="403" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="404" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="405" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="406" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="407" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="408" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="409" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="410" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="411" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="412" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="413" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="414" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="415" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="416" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="417" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="418" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="419" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="420" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="421" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="422" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="423" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="424" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="425" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="426" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="427" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="428" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="429" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="430" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="431" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="432" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="433" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="434" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="435" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="436" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="437" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="438" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="439" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="440" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="441" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="442" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="443" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="444" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="445" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="446" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="447" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="448" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="449" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="450" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="451" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="452" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="453" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="454" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="455" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="456" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="457" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="458" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="459" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="460" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="461" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="462" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="463" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="464" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="465" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="466" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="467" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="468" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="469" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="470" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="471" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="472" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="473" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="474" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="475" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="476" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="477" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="478" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="479" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="480" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="481" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="482" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="483" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="484" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="485" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="486" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="487" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="488" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="489" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="490" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="491" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="492" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="493" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="494" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="495" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="496" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="497" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="498" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="499" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="500" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="501" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="502" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="503" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="504" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="505" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="506" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="507" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="508" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="509" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="510" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="511" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="512" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="513" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="514" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="515" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="516" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="517" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="518" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="519" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="520" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="521" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="522" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="523" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="524" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="525" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="526" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="527" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="528" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="529" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="530" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="531" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="532" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="533" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="534" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="535" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="536" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="537" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="538" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="539" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="540" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="541" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="542" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="543" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="544" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="545" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="546" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="547" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="548" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="549" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="550" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="551" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="552" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="553" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="554" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="555" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="556" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="557" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="558" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="559" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="560" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="561" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,6 +1481,474 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H40"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" customWidth="true"/>
+    <col min="2" max="2" width="8.453125" customWidth="true"/>
+    <col min="3" max="3" width="12.453125" customWidth="true"/>
+    <col min="4" max="4" width="12.453125" customWidth="true"/>
+    <col min="5" max="5" width="12.453125" customWidth="true"/>
+    <col min="6" max="6" width="12.453125" customWidth="true"/>
+    <col min="7" max="7" width="12.453125" customWidth="true"/>
+    <col min="8" max="8" width="10.453125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="199" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="207" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="208"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="215" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="223"/>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="224"/>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="225"/>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="226"/>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="227"/>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="221" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="222"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="48"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="57"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="64"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="229"/>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="230"/>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="231"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="137"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="144"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="561"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="153"/>
+      <c r="B25" s="154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="155" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="156" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="157" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="158" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="160"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="234"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="235"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="236"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="237"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="238"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="239"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="240"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="241"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="242"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="243"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="244"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="245"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="246"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="247"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="248"/>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H39"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -860,438 +1964,410 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="251" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="252" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="254" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="255" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="256" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="A2" s="257"/>
+      <c r="B2" s="258"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="261"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="264"/>
     </row>
     <row r="3">
-      <c r="A3" s="199" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="265"/>
+      <c r="B3" s="266"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="271"/>
+      <c r="H3" s="272"/>
     </row>
     <row r="4">
-      <c r="A4" s="204" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="273"/>
+      <c r="B4" s="274"/>
+      <c r="C4" s="275"/>
+      <c r="D4" s="276"/>
+      <c r="E4" s="277"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="279"/>
+      <c r="H4" s="280"/>
     </row>
     <row r="5">
-      <c r="A5" s="207" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A5" s="281"/>
+      <c r="B5" s="282"/>
+      <c r="C5" s="283"/>
+      <c r="D5" s="284"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="287"/>
+      <c r="H5" s="288"/>
     </row>
     <row r="6">
-      <c r="A6" s="208"/>
+      <c r="A6" s="289"/>
+      <c r="B6" s="290"/>
+      <c r="C6" s="291"/>
+      <c r="D6" s="292"/>
+      <c r="E6" s="293"/>
+      <c r="F6" s="294"/>
+      <c r="G6" s="295"/>
+      <c r="H6" s="296"/>
     </row>
     <row r="7">
-      <c r="A7" s="215" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>78</v>
-      </c>
+      <c r="A7" s="297"/>
+      <c r="B7" s="298"/>
+      <c r="C7" s="299"/>
+      <c r="D7" s="300"/>
+      <c r="E7" s="301"/>
+      <c r="F7" s="302"/>
+      <c r="G7" s="303"/>
+      <c r="H7" s="304"/>
     </row>
     <row r="8">
-      <c r="A8" s="223"/>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>97</v>
-      </c>
+      <c r="A8" s="305"/>
+      <c r="B8" s="306"/>
+      <c r="C8" s="307"/>
+      <c r="D8" s="308"/>
+      <c r="E8" s="309"/>
+      <c r="F8" s="310"/>
+      <c r="G8" s="311"/>
+      <c r="H8" s="312"/>
     </row>
     <row r="9">
-      <c r="A9" s="224"/>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" t="s">
-        <v>83</v>
-      </c>
+      <c r="A9" s="313"/>
+      <c r="B9" s="314"/>
+      <c r="C9" s="315"/>
+      <c r="D9" s="316"/>
+      <c r="E9" s="317"/>
+      <c r="F9" s="318"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="320"/>
     </row>
     <row r="10">
-      <c r="A10" s="225"/>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" t="s">
-        <v>83</v>
-      </c>
+      <c r="A10" s="321"/>
+      <c r="B10" s="322"/>
+      <c r="C10" s="323"/>
+      <c r="D10" s="324"/>
+      <c r="E10" s="325"/>
+      <c r="F10" s="326"/>
+      <c r="G10" s="327"/>
+      <c r="H10" s="328"/>
     </row>
     <row r="11">
-      <c r="A11" s="226"/>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" t="s">
-        <v>86</v>
-      </c>
+      <c r="A11" s="329"/>
+      <c r="B11" s="330"/>
+      <c r="C11" s="331"/>
+      <c r="D11" s="332"/>
+      <c r="E11" s="333"/>
+      <c r="F11" s="334"/>
+      <c r="G11" s="335"/>
+      <c r="H11" s="336"/>
     </row>
     <row r="12">
-      <c r="A12" s="227"/>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" t="s">
-        <v>86</v>
-      </c>
+      <c r="A12" s="337"/>
+      <c r="B12" s="338"/>
+      <c r="C12" s="339"/>
+      <c r="D12" s="340"/>
+      <c r="E12" s="341"/>
+      <c r="F12" s="342"/>
+      <c r="G12" s="343"/>
+      <c r="H12" s="344"/>
     </row>
     <row r="13">
-      <c r="A13" s="221" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
+      <c r="A13" s="345"/>
+      <c r="B13" s="346"/>
+      <c r="C13" s="347"/>
+      <c r="D13" s="348"/>
+      <c r="E13" s="349"/>
+      <c r="F13" s="350"/>
+      <c r="G13" s="351"/>
+      <c r="H13" s="352"/>
     </row>
     <row r="14">
-      <c r="A14" s="222"/>
+      <c r="A14" s="353"/>
+      <c r="B14" s="354"/>
+      <c r="C14" s="355"/>
+      <c r="D14" s="356"/>
+      <c r="E14" s="357"/>
+      <c r="F14" s="358"/>
+      <c r="G14" s="359"/>
+      <c r="H14" s="360"/>
     </row>
     <row r="15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="24"/>
+      <c r="A15" s="361"/>
+      <c r="B15" s="362"/>
+      <c r="C15" s="363"/>
+      <c r="D15" s="364"/>
+      <c r="E15" s="365"/>
+      <c r="F15" s="366"/>
+      <c r="G15" s="367"/>
+      <c r="H15" s="368"/>
     </row>
     <row r="16">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="32"/>
+      <c r="A16" s="369"/>
+      <c r="B16" s="370"/>
+      <c r="C16" s="371"/>
+      <c r="D16" s="372"/>
+      <c r="E16" s="373"/>
+      <c r="F16" s="374"/>
+      <c r="G16" s="375"/>
+      <c r="H16" s="376"/>
     </row>
     <row r="17">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="40"/>
+      <c r="A17" s="377"/>
+      <c r="B17" s="378"/>
+      <c r="C17" s="379"/>
+      <c r="D17" s="380"/>
+      <c r="E17" s="381"/>
+      <c r="F17" s="382"/>
+      <c r="G17" s="383"/>
+      <c r="H17" s="384"/>
     </row>
     <row r="18">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="48"/>
+      <c r="A18" s="385"/>
+      <c r="B18" s="386"/>
+      <c r="C18" s="387"/>
+      <c r="D18" s="388"/>
+      <c r="E18" s="389"/>
+      <c r="F18" s="390"/>
+      <c r="G18" s="391"/>
+      <c r="H18" s="392"/>
     </row>
     <row r="19">
-      <c r="A19" s="57"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="64"/>
+      <c r="A19" s="393"/>
+      <c r="B19" s="394"/>
+      <c r="C19" s="395"/>
+      <c r="D19" s="396"/>
+      <c r="E19" s="397"/>
+      <c r="F19" s="398"/>
+      <c r="G19" s="399"/>
+      <c r="H19" s="400"/>
     </row>
     <row r="20">
-      <c r="A20" s="229"/>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
+      <c r="A20" s="401"/>
+      <c r="B20" s="402"/>
+      <c r="C20" s="403"/>
+      <c r="D20" s="404"/>
+      <c r="E20" s="405"/>
+      <c r="F20" s="406"/>
+      <c r="G20" s="407"/>
+      <c r="H20" s="408"/>
     </row>
     <row r="21">
-      <c r="A21" s="230"/>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" t="s">
-        <v>96</v>
-      </c>
+      <c r="A21" s="409"/>
+      <c r="B21" s="410"/>
+      <c r="C21" s="411"/>
+      <c r="D21" s="412"/>
+      <c r="E21" s="413"/>
+      <c r="F21" s="414"/>
+      <c r="G21" s="415"/>
+      <c r="H21" s="416"/>
     </row>
     <row r="22">
-      <c r="A22" s="231"/>
+      <c r="A22" s="417"/>
+      <c r="B22" s="418"/>
+      <c r="C22" s="419"/>
+      <c r="D22" s="420"/>
+      <c r="E22" s="421"/>
+      <c r="F22" s="422"/>
+      <c r="G22" s="423"/>
+      <c r="H22" s="424"/>
     </row>
     <row r="23">
-      <c r="A23" s="137"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="144"/>
+      <c r="A23" s="425"/>
+      <c r="B23" s="426"/>
+      <c r="C23" s="427"/>
+      <c r="D23" s="428"/>
+      <c r="E23" s="429"/>
+      <c r="F23" s="430"/>
+      <c r="G23" s="431"/>
+      <c r="H23" s="432"/>
     </row>
     <row r="24">
-      <c r="A24" s="153"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="160"/>
+      <c r="A24" s="433"/>
+      <c r="B24" s="434"/>
+      <c r="C24" s="435"/>
+      <c r="D24" s="436"/>
+      <c r="E24" s="437"/>
+      <c r="F24" s="438"/>
+      <c r="G24" s="439"/>
+      <c r="H24" s="440"/>
     </row>
     <row r="25">
-      <c r="A25" s="234"/>
+      <c r="A25" s="441"/>
+      <c r="B25" s="442"/>
+      <c r="C25" s="443"/>
+      <c r="D25" s="444"/>
+      <c r="E25" s="445"/>
+      <c r="F25" s="446"/>
+      <c r="G25" s="447"/>
+      <c r="H25" s="448"/>
     </row>
     <row r="26">
-      <c r="A26" s="235"/>
+      <c r="A26" s="449"/>
+      <c r="B26" s="450"/>
+      <c r="C26" s="451"/>
+      <c r="D26" s="452"/>
+      <c r="E26" s="453"/>
+      <c r="F26" s="454"/>
+      <c r="G26" s="455"/>
+      <c r="H26" s="456"/>
     </row>
     <row r="27">
-      <c r="A27" s="236"/>
+      <c r="A27" s="457"/>
+      <c r="B27" s="458"/>
+      <c r="C27" s="459"/>
+      <c r="D27" s="460"/>
+      <c r="E27" s="461"/>
+      <c r="F27" s="462"/>
+      <c r="G27" s="463"/>
+      <c r="H27" s="464"/>
     </row>
     <row r="28">
-      <c r="A28" s="237"/>
+      <c r="A28" s="465"/>
+      <c r="B28" s="466"/>
+      <c r="C28" s="467"/>
+      <c r="D28" s="468"/>
+      <c r="E28" s="469"/>
+      <c r="F28" s="470"/>
+      <c r="G28" s="471"/>
+      <c r="H28" s="472"/>
     </row>
     <row r="29">
-      <c r="A29" s="238"/>
+      <c r="A29" s="473"/>
+      <c r="B29" s="474"/>
+      <c r="C29" s="475"/>
+      <c r="D29" s="476"/>
+      <c r="E29" s="477"/>
+      <c r="F29" s="478"/>
+      <c r="G29" s="479"/>
+      <c r="H29" s="480"/>
     </row>
     <row r="30">
-      <c r="A30" s="239"/>
+      <c r="A30" s="481"/>
+      <c r="B30" s="482"/>
+      <c r="C30" s="483"/>
+      <c r="D30" s="484"/>
+      <c r="E30" s="485"/>
+      <c r="F30" s="486"/>
+      <c r="G30" s="487"/>
+      <c r="H30" s="488"/>
     </row>
     <row r="31">
-      <c r="A31" s="240"/>
+      <c r="A31" s="489"/>
+      <c r="B31" s="490"/>
+      <c r="C31" s="491"/>
+      <c r="D31" s="492"/>
+      <c r="E31" s="493"/>
+      <c r="F31" s="494"/>
+      <c r="G31" s="495"/>
+      <c r="H31" s="496"/>
     </row>
     <row r="32">
-      <c r="A32" s="241"/>
+      <c r="A32" s="497"/>
+      <c r="B32" s="498"/>
+      <c r="C32" s="499"/>
+      <c r="D32" s="500"/>
+      <c r="E32" s="501"/>
+      <c r="F32" s="502"/>
+      <c r="G32" s="503"/>
+      <c r="H32" s="504"/>
     </row>
     <row r="33">
-      <c r="A33" s="242"/>
+      <c r="A33" s="505"/>
+      <c r="B33" s="506"/>
+      <c r="C33" s="507"/>
+      <c r="D33" s="508"/>
+      <c r="E33" s="509"/>
+      <c r="F33" s="510"/>
+      <c r="G33" s="511"/>
+      <c r="H33" s="512"/>
     </row>
     <row r="34">
-      <c r="A34" s="243"/>
+      <c r="A34" s="513"/>
+      <c r="B34" s="514"/>
+      <c r="C34" s="515"/>
+      <c r="D34" s="516"/>
+      <c r="E34" s="517"/>
+      <c r="F34" s="518"/>
+      <c r="G34" s="519"/>
+      <c r="H34" s="520"/>
     </row>
     <row r="35">
-      <c r="A35" s="244"/>
+      <c r="A35" s="521"/>
+      <c r="B35" s="522"/>
+      <c r="C35" s="523"/>
+      <c r="D35" s="524"/>
+      <c r="E35" s="525"/>
+      <c r="F35" s="526"/>
+      <c r="G35" s="527"/>
+      <c r="H35" s="528"/>
     </row>
     <row r="36">
-      <c r="A36" s="245"/>
+      <c r="A36" s="529"/>
+      <c r="B36" s="530"/>
+      <c r="C36" s="531"/>
+      <c r="D36" s="532"/>
+      <c r="E36" s="533"/>
+      <c r="F36" s="534"/>
+      <c r="G36" s="535"/>
+      <c r="H36" s="536"/>
     </row>
     <row r="37">
-      <c r="A37" s="246"/>
+      <c r="A37" s="537"/>
+      <c r="B37" s="538"/>
+      <c r="C37" s="539"/>
+      <c r="D37" s="540"/>
+      <c r="E37" s="541"/>
+      <c r="F37" s="542"/>
+      <c r="G37" s="543"/>
+      <c r="H37" s="544"/>
     </row>
     <row r="38">
-      <c r="A38" s="247"/>
+      <c r="A38" s="545"/>
+      <c r="B38" s="546"/>
+      <c r="C38" s="547"/>
+      <c r="D38" s="548"/>
+      <c r="E38" s="549"/>
+      <c r="F38" s="550"/>
+      <c r="G38" s="551"/>
+      <c r="H38" s="552"/>
     </row>
     <row r="39">
-      <c r="A39" s="248"/>
+      <c r="A39" s="553"/>
+      <c r="B39" s="554"/>
+      <c r="C39" s="555"/>
+      <c r="D39" s="556"/>
+      <c r="E39" s="557"/>
+      <c r="F39" s="558"/>
+      <c r="G39" s="559"/>
+      <c r="H39" s="560"/>
     </row>
   </sheetData>
 </worksheet>

--- a/TC_Template/Main.rvl.xlsx
+++ b/TC_Template/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="101">
   <si>
     <t>Flow</t>
   </si>
@@ -337,7 +337,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="562">
+  <borders count="561">
     <border>
       <left/>
       <right/>
@@ -905,12 +905,11 @@
     <border/>
     <border/>
     <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="562">
+  <cellXfs count="561">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1472,7 +1471,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="558" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="559" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="560" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="561" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1482,7 +1480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H39"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -1875,74 +1873,95 @@
       <c r="H23" s="144"/>
     </row>
     <row r="24">
-      <c r="A24" s="561"/>
+      <c r="A24" s="153"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="160"/>
     </row>
     <row r="25">
-      <c r="A25" s="153"/>
-      <c r="B25" s="154" t="s">
+      <c r="A25" s="234"/>
+      <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="155" t="s">
+      <c r="C25" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="156" t="s">
+      <c r="D25" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="157" t="s">
+      <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="158" t="s">
+      <c r="F25" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="159" t="s">
+      <c r="G25" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="160"/>
     </row>
     <row r="26">
-      <c r="A26" s="234"/>
+      <c r="A26" s="235"/>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="235"/>
+      <c r="A27" s="236"/>
     </row>
     <row r="28">
-      <c r="A28" s="236"/>
+      <c r="A28" s="237"/>
     </row>
     <row r="29">
-      <c r="A29" s="237"/>
+      <c r="A29" s="238"/>
     </row>
     <row r="30">
-      <c r="A30" s="238"/>
+      <c r="A30" s="239"/>
     </row>
     <row r="31">
-      <c r="A31" s="239"/>
+      <c r="A31" s="240"/>
     </row>
     <row r="32">
-      <c r="A32" s="240"/>
+      <c r="A32" s="241"/>
     </row>
     <row r="33">
-      <c r="A33" s="241"/>
+      <c r="A33" s="242"/>
     </row>
     <row r="34">
-      <c r="A34" s="242"/>
+      <c r="A34" s="243"/>
     </row>
     <row r="35">
-      <c r="A35" s="243"/>
+      <c r="A35" s="244"/>
     </row>
     <row r="36">
-      <c r="A36" s="244"/>
+      <c r="A36" s="245"/>
     </row>
     <row r="37">
-      <c r="A37" s="245"/>
+      <c r="A37" s="246"/>
     </row>
     <row r="38">
-      <c r="A38" s="246"/>
+      <c r="A38" s="247"/>
     </row>
     <row r="39">
-      <c r="A39" s="247"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="248"/>
+      <c r="A39" s="248"/>
     </row>
   </sheetData>
 </worksheet>

--- a/TC_Template/Main.rvl.xlsx
+++ b/TC_Template/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="106">
   <si>
     <t>Flow</t>
   </si>
@@ -317,6 +317,21 @@
   </si>
   <si>
     <t>Cleanup</t>
+  </si>
+  <si>
+    <t>Crm</t>
+  </si>
+  <si>
+    <t>LaunchSales</t>
+  </si>
+  <si>
+    <t>ChangeArea</t>
+  </si>
+  <si>
+    <t>OpenEntity</t>
+  </si>
+  <si>
+    <t>ClickButton</t>
   </si>
 </sst>
 </file>
@@ -337,7 +352,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="561">
+  <borders count="569">
     <border>
       <left/>
       <right/>
@@ -905,11 +920,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="561">
+  <cellXfs count="569">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1471,6 +1494,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="558" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="559" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="560" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="561" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="562" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="563" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="564" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="565" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="566" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="567" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="568" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1480,7 +1511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H35"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -1634,334 +1665,274 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="224"/>
+      <c r="A9" s="221" t="s">
+        <v>72</v>
+      </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="222"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="229"/>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="230"/>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
         <v>82</v>
       </c>
-      <c r="G9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="225"/>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="226"/>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="227"/>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="221" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="222"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="40"/>
+      <c r="G17" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="48"/>
+      <c r="A18" s="231"/>
     </row>
     <row r="19">
-      <c r="A19" s="57"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="64"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="144"/>
     </row>
     <row r="20">
-      <c r="A20" s="229"/>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
+      <c r="A20" s="153"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="160"/>
     </row>
     <row r="21">
-      <c r="A21" s="230"/>
+      <c r="A21" s="234"/>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="231"/>
+      <c r="A22" s="235"/>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="137"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="144"/>
+      <c r="A23" s="236"/>
     </row>
     <row r="24">
-      <c r="A24" s="153"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="160"/>
+      <c r="A24" s="237"/>
     </row>
     <row r="25">
-      <c r="A25" s="234"/>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>100</v>
-      </c>
+      <c r="A25" s="238"/>
     </row>
     <row r="26">
-      <c r="A26" s="235"/>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" t="s">
-        <v>7</v>
-      </c>
+      <c r="A26" s="239"/>
     </row>
     <row r="27">
-      <c r="A27" s="236"/>
+      <c r="A27" s="240"/>
     </row>
     <row r="28">
-      <c r="A28" s="237"/>
+      <c r="A28" s="241"/>
     </row>
     <row r="29">
-      <c r="A29" s="238"/>
+      <c r="A29" s="242"/>
     </row>
     <row r="30">
-      <c r="A30" s="239"/>
+      <c r="A30" s="243"/>
     </row>
     <row r="31">
-      <c r="A31" s="240"/>
+      <c r="A31" s="244"/>
     </row>
     <row r="32">
-      <c r="A32" s="241"/>
+      <c r="A32" s="245"/>
     </row>
     <row r="33">
-      <c r="A33" s="242"/>
+      <c r="A33" s="246"/>
     </row>
     <row r="34">
-      <c r="A34" s="243"/>
+      <c r="A34" s="247"/>
     </row>
     <row r="35">
-      <c r="A35" s="244"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="245"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="246"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="247"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="248"/>
+      <c r="A35" s="248"/>
     </row>
   </sheetData>
 </worksheet>
